--- a/Oplossing 24.xlsx
+++ b/Oplossing 24.xlsx
@@ -491,17 +491,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VW_23</t>
+          <t>WO_40</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>VW_35</t>
+          <t>WO_45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>WO_53</t>
+          <t>WO_87</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -523,17 +523,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VW_20</t>
+          <t>WO_69</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>VW_5</t>
+          <t>VW_62</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>VW_3</t>
+          <t>VW_21</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -555,7 +555,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VW_31</t>
+          <t>VW_46</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -565,7 +565,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>WO_41</t>
+          <t>WO_16</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -587,17 +587,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VW_57</t>
+          <t>VW_43</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>VW_8</t>
+          <t>WO_61</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>VW_39</t>
+          <t>WO_49</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -619,7 +619,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>WO_11</t>
+          <t>VW_57</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>VW_33</t>
+          <t>WO_55</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VW_46</t>
+          <t>WO_69</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>WO_53</t>
+          <t>VW_72</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>VW_57</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>WO_61</t>
+          <t>VW_51</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -733,12 +733,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>WO_11</t>
+          <t>VW_23</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>VW_32</t>
+          <t>WO_79</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -771,12 +771,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VW_31</t>
+          <t>VW_23</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>VW_51</t>
+          <t>WO_71</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -809,12 +809,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VW_46</t>
+          <t>VW_27</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>WO_24</t>
+          <t>WO_32</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -847,7 +847,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VW_6</t>
+          <t>WO_21</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>WO_1</t>
+          <t>WO_49</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -885,7 +885,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VW_43</t>
+          <t>VW_20</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -928,12 +928,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>VW_8</t>
+          <t>VW_5</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>WO_16</t>
+          <t>VW_72</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>VW_72</t>
+          <t>VW_39</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -999,12 +999,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VW_27</t>
+          <t>WO_21</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>WO_45</t>
+          <t>VW_32</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VW_20</t>
+          <t>WO_36</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>WO_77</t>
+          <t>WO_71</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1080,12 +1080,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>VW_8</t>
+          <t>VW_12</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>VW_39</t>
+          <t>WO_53</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1118,12 +1118,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>VW_70</t>
+          <t>WO_77</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>VW_15</t>
+          <t>WO_87</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1151,12 +1151,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VW_43</t>
+          <t>WO_85</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WO_38</t>
+          <t>VW_8</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>WO_40</t>
+          <t>VW_31</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>VW_35</t>
+          <t>VW_62</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1232,12 +1232,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>WO_24</t>
+          <t>WO_52</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>WO_41</t>
+          <t>VW_72</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1270,12 +1270,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>VW_5</t>
+          <t>VW_32</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>WO_20</t>
+          <t>WO_16</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1308,12 +1308,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>VW_12</t>
+          <t>VW_70</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>WO_53</t>
+          <t>VW_21</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>WO_38</t>
+          <t>WO_77</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>WO_50</t>
+          <t>WO_81</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1379,7 +1379,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VW_46</t>
+          <t>VW_9</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>WO_20</t>
+          <t>VW_25</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>WO_36</t>
+          <t>WO_23</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>WO_87</t>
+          <t>WO_50</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1455,12 +1455,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VW_6</t>
+          <t>WO_40</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>VW_70</t>
+          <t>WO_45</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1493,12 +1493,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>WO_36</t>
+          <t>WO_51</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>WO_32</t>
+          <t>WO_79</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>WO_85</t>
+          <t>WO_21</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>WO_16</t>
+          <t>WO_20</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>VW_6</t>
+          <t>WO_36</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1607,12 +1607,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>WO_7</t>
+          <t>VW_6</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>VW_62</t>
+          <t>WO_79</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1645,12 +1645,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>WO_11</t>
+          <t>VW_27</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WO_24</t>
+          <t>WO_61</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1683,12 +1683,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>WO_23</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>VW_12</t>
+          <t>VW_35</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1721,12 +1721,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>WO_33</t>
+          <t>VW_31</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>VW_51</t>
+          <t>WO_45</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1764,12 +1764,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>WO_38</t>
+          <t>VW_8</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>WO_55</t>
+          <t>WO_16</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1802,12 +1802,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>WO_26</t>
+          <t>VW_51</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>WO_49</t>
+          <t>WO_13</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1840,12 +1840,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>WO_71</t>
+          <t>VW_32</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>VW_3</t>
+          <t>WO_20</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1878,12 +1878,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>VW_12</t>
+          <t>VW_70</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>WO_16</t>
+          <t>VW_3</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>WO_51</t>
+          <t>VW_31</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>VW_3</t>
+          <t>VW_15</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>VW_31</t>
+          <t>WO_23</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1959,7 +1959,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>WO_87</t>
+          <t>WO_55</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -1992,12 +1992,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>WO_79</t>
+          <t>WO_61</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>WO_55</t>
+          <t>WO_1</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2030,12 +2030,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>VW_35</t>
+          <t>WO_38</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>VW_39</t>
+          <t>WO_49</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>WO_40</t>
+          <t>VW_6</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>WO_20</t>
+          <t>VW_39</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2101,7 +2101,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>WO_23</t>
+          <t>WO_85</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2111,7 +2111,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>WO_55</t>
+          <t>VW_21</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>VW_9</t>
+          <t>WO_11</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>WO_50</t>
+          <t>WO_20</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2177,7 +2177,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>VW_43</t>
+          <t>WO_36</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2187,7 +2187,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>WO_49</t>
+          <t>WO_41</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2215,17 +2215,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>WO_23</t>
+          <t>WO_69</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>WO_61</t>
+          <t>VW_12</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>WO_75</t>
+          <t>WO_87</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -2247,17 +2247,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>VW_9</t>
+          <t>VW_46</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>WO_71</t>
+          <t>WO_26</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>WO_53</t>
+          <t>VW_33</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -2284,12 +2284,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>WO_77</t>
+          <t>WO_71</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>VW_25</t>
+          <t>WO_50</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2317,7 +2317,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>WO_36</t>
+          <t>WO_69</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2327,7 +2327,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>WO_13</t>
+          <t>VW_15</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>WO_40</t>
+          <t>VW_31</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>WO_13</t>
+          <t>WO_53</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2393,12 +2393,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>VW_31</t>
+          <t>WO_51</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>VW_8</t>
+          <t>WO_38</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2431,12 +2431,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>VW_31</t>
+          <t>VW_20</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>WO_61</t>
+          <t>WO_24</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2469,7 +2469,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>VW_31</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2479,7 +2479,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>VW_33</t>
+          <t>WO_87</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2507,7 +2507,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>VW_27</t>
+          <t>WO_40</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2517,7 +2517,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>VW_21</t>
+          <t>VW_39</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2550,12 +2550,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>VW_5</t>
+          <t>VW_8</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>WO_87</t>
+          <t>WO_55</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2588,7 +2588,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>VW_5</t>
+          <t>VW_12</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>WO_38</t>
+          <t>WO_26</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2659,12 +2659,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>WO_51</t>
+          <t>WO_36</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>VW_32</t>
+          <t>VW_51</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2697,12 +2697,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>VW_20</t>
+          <t>WO_7</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>WO_26</t>
+          <t>VW_8</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2735,12 +2735,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>WO_27</t>
+          <t>WO_40</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>VW_32</t>
+          <t>WO_77</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2773,12 +2773,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>VW_57</t>
+          <t>WO_40</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>VW_32</t>
+          <t>VW_35</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2811,12 +2811,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>VW_27</t>
+          <t>WO_51</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>VW_51</t>
+          <t>WO_24</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2849,12 +2849,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>WO_85</t>
+          <t>VW_9</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>VW_62</t>
+          <t>WO_24</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2892,7 +2892,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>WO_52</t>
+          <t>VW_70</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2930,7 +2930,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>VW_12</t>
+          <t>WO_77</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2968,12 +2968,12 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>WO_32</t>
+          <t>WO_24</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>VW_72</t>
+          <t>VW_21</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -3006,12 +3006,12 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>WO_79</t>
+          <t>VW_51</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>VW_21</t>
+          <t>WO_1</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3044,12 +3044,12 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>VW_70</t>
+          <t>WO_32</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>VW_3</t>
+          <t>WO_75</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3087,7 +3087,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>VW_25</t>
+          <t>WO_1</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3115,7 +3115,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>WO_27</t>
+          <t>VW_43</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3125,7 +3125,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>WO_81</t>
+          <t>WO_75</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3153,7 +3153,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>WO_27</t>
+          <t>VW_31</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3163,7 +3163,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>VW_72</t>
+          <t>WO_41</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3191,7 +3191,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>WO_69</t>
+          <t>VW_27</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>WO_50</t>
+          <t>WO_55</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>VW_46</t>
+          <t>WO_85</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3239,7 +3239,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>WO_81</t>
+          <t>VW_39</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3272,12 +3272,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>WO_52</t>
+          <t>VW_51</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>VW_3</t>
+          <t>WO_81</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -3310,12 +3310,12 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>WO_79</t>
+          <t>VW_35</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>WO_55</t>
+          <t>VW_21</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3343,7 +3343,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>VW_9</t>
+          <t>VW_20</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>WO_75</t>
+          <t>VW_25</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3381,7 +3381,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>WO_36</t>
+          <t>VW_20</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3391,7 +3391,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>WO_75</t>
+          <t>VW_3</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3419,17 +3419,17 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>WO_40</t>
+          <t>VW_46</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>VW_8</t>
+          <t>WO_61</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>VW_25</t>
+          <t>WO_53</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
@@ -3451,17 +3451,17 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>WO_40</t>
+          <t>WO_33</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>WO_32</t>
+          <t>VW_8</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>WO_49</t>
+          <t>WO_50</t>
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
@@ -3488,12 +3488,12 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>WO_32</t>
+          <t>VW_32</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>VW_15</t>
+          <t>VW_3</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3526,12 +3526,12 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>WO_77</t>
+          <t>WO_71</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>VW_15</t>
+          <t>VW_39</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -3564,12 +3564,12 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>WO_45</t>
+          <t>WO_24</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>WO_16</t>
+          <t>WO_13</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -3602,12 +3602,12 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>VW_12</t>
+          <t>WO_26</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>WO_41</t>
+          <t>VW_25</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -3635,7 +3635,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>WO_40</t>
+          <t>WO_36</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3645,7 +3645,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>WO_41</t>
+          <t>VW_25</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>WO_27</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3683,7 +3683,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>WO_1</t>
+          <t>WO_13</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -3716,12 +3716,12 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>VW_51</t>
+          <t>VW_12</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>VW_21</t>
+          <t>VW_33</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -3754,12 +3754,12 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>WO_71</t>
+          <t>WO_52</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>VW_15</t>
+          <t>WO_13</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -3787,12 +3787,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>VW_31</t>
+          <t>VW_57</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>WO_24</t>
+          <t>VW_62</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -3825,12 +3825,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>VW_9</t>
+          <t>WO_33</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>VW_70</t>
+          <t>VW_5</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3863,7 +3863,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>VW_23</t>
+          <t>WO_40</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3873,7 +3873,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>WO_13</t>
+          <t>VW_15</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>VW_46</t>
+          <t>WO_33</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3911,7 +3911,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>VW_25</t>
+          <t>VW_33</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -3939,12 +3939,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>VW_57</t>
+          <t>VW_27</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>VW_32</t>
+          <t>WO_32</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -3977,12 +3977,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>VW_57</t>
+          <t>VW_6</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>VW_12</t>
+          <t>VW_8</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -4015,12 +4015,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>VW_46</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>WO_77</t>
+          <t>VW_12</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -4053,12 +4053,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>VW_20</t>
+          <t>WO_27</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>WO_26</t>
+          <t>WO_52</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -4096,12 +4096,12 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>VW_8</t>
+          <t>WO_24</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>WO_75</t>
+          <t>WO_20</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -4134,12 +4134,12 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>WO_45</t>
+          <t>WO_52</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>VW_33</t>
+          <t>VW_3</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -4167,7 +4167,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>WO_69</t>
+          <t>WO_21</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4177,7 +4177,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>VW_15</t>
+          <t>WO_41</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -4205,7 +4205,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>WO_23</t>
+          <t>WO_11</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4215,7 +4215,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>WO_81</t>
+          <t>WO_49</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -4243,12 +4243,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>VW_46</t>
+          <t>VW_23</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>WO_52</t>
+          <t>WO_38</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>WO_26</t>
+          <t>WO_79</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -4319,12 +4319,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>WO_85</t>
+          <t>VW_43</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>WO_24</t>
+          <t>WO_32</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -4421,7 +4421,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>VW_23</t>
+          <t>WO_51</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>WO_1</t>
+          <t>WO_50</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -4459,7 +4459,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>WO_7</t>
+          <t>VW_43</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4469,7 +4469,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>WO_49</t>
+          <t>VW_33</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -4497,17 +4497,17 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>VW_27</t>
+          <t>WO_11</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>WO_45</t>
+          <t>VW_51</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>WO_50</t>
+          <t>WO_41</t>
         </is>
       </c>
       <c r="G109" t="inlineStr"/>
@@ -4529,17 +4529,17 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>VW_23</t>
+          <t>VW_9</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>VW_51</t>
+          <t>VW_5</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>WO_49</t>
+          <t>WO_53</t>
         </is>
       </c>
       <c r="G110" t="inlineStr"/>
@@ -4566,7 +4566,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>VW_62</t>
+          <t>WO_32</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -4604,12 +4604,12 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>VW_5</t>
+          <t>WO_26</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>VW_39</t>
+          <t>VW_72</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -4637,7 +4637,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>WO_23</t>
+          <t>VW_9</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>WO_41</t>
+          <t>VW_3</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -4675,7 +4675,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>WO_27</t>
+          <t>WO_7</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -4685,7 +4685,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>VW_33</t>
+          <t>WO_81</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -4713,12 +4713,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>VW_43</t>
+          <t>VW_46</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>WO_32</t>
+          <t>VW_5</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -4751,12 +4751,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>VW_43</t>
+          <t>VW_57</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>WO_79</t>
+          <t>WO_45</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -4789,7 +4789,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>WO_85</t>
+          <t>WO_27</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4799,7 +4799,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>VW_72</t>
+          <t>WO_49</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>WO_69</t>
+          <t>WO_27</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -4837,7 +4837,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>WO_13</t>
+          <t>WO_75</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -4865,7 +4865,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>WO_51</t>
+          <t>WO_85</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -4875,7 +4875,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>VW_21</t>
+          <t>VW_15</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -4903,7 +4903,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>WO_36</t>
+          <t>VW_23</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -4913,7 +4913,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>VW_39</t>
+          <t>WO_75</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>WO_69</t>
+          <t>WO_21</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5055,12 +5055,12 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>WO_51</t>
+          <t>VW_43</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>VW_51</t>
+          <t>VW_70</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -5098,12 +5098,12 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>WO_71</t>
+          <t>VW_32</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>WO_87</t>
+          <t>WO_41</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -5136,12 +5136,12 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>WO_52</t>
+          <t>VW_12</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>WO_81</t>
+          <t>WO_16</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -5174,7 +5174,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>VW_35</t>
+          <t>VW_5</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -5207,17 +5207,17 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>WO_33</t>
+          <t>WO_23</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>WO_24</t>
+          <t>WO_38</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>WO_20</t>
+          <t>WO_81</t>
         </is>
       </c>
       <c r="G128" t="inlineStr"/>
@@ -5239,17 +5239,17 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>WO_33</t>
+          <t>VW_46</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>WO_61</t>
+          <t>VW_35</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>VW_21</t>
+          <t>VW_15</t>
         </is>
       </c>
       <c r="G129" t="inlineStr"/>
